--- a/biology/Botanique/Parc_Montmorency/Parc_Montmorency.xlsx
+++ b/biology/Botanique/Parc_Montmorency/Parc_Montmorency.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Montmorency est un parc situé à  Québec. Il est localisé dans l'arrondissement historique du Vieux-Québec, à la limite de la Haute-Ville, surplombant la Basse-Ville.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De forme triangulaire, il est bordé au nord-ouest par la rue Port-Dauphin, au sud par la côte de la Montagne et à l'est par la falaise.
 En 1949, il est reconnu lieu historique national du Canada pour avoir été l'emplacement :
@@ -552,7 +566,9 @@
           <t>Monuments</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux monuments se trouvent au parc Montmorency :
 Monument à Louis Hébert, le premier colon français de la Nouvelle-France  (né vers 1575 à Paris et décédé en janvier 1627 à Québec)
@@ -588,7 +604,9 @@
           <t>Histoire du lieu</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le premier colon français à s'amener en Nouvelle-France, Louis Hébert, avec femme et enfants, a occupé cet emplacement.
 En 1666, François de Montmorency-Laval achète le terrain pour y construire le Séminaire de Québec.
